--- a/WHC_COVID_CHECK/WISOL.UI/DANH_SACH_TEST.xlsx
+++ b/WHC_COVID_CHECK/WISOL.UI/DANH_SACH_TEST.xlsx
@@ -15,7 +15,7 @@
     <sheet name="DATA" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$G$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Sảnh tầng 1, NM1</t>
+  </si>
+  <si>
+    <t>Ca làm việc</t>
   </si>
 </sst>
 </file>
@@ -487,21 +490,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -515,13 +518,16 @@
         <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -534,14 +540,15 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -554,15 +561,16 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3"/>
+  <autoFilter ref="A1:G3"/>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="4" priority="106"/>
   </conditionalFormatting>

--- a/WHC_COVID_CHECK/WISOL.UI/DANH_SACH_TEST.xlsx
+++ b/WHC_COVID_CHECK/WISOL.UI/DANH_SACH_TEST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>STT</t>
   </si>
@@ -35,24 +35,9 @@
     <t>Mã nhân viên</t>
   </si>
   <si>
-    <t>Mai Văn Tới</t>
-  </si>
-  <si>
-    <t>H1506001</t>
-  </si>
-  <si>
     <t>Họ tên</t>
   </si>
   <si>
-    <t>SMT</t>
-  </si>
-  <si>
-    <t>H1506005</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Điệp</t>
-  </si>
-  <si>
     <t>Bộ phận</t>
   </si>
   <si>
@@ -60,12 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve">Địa điểm </t>
-  </si>
-  <si>
-    <t>8h40</t>
-  </si>
-  <si>
-    <t>Sảnh tầng 1, NM1</t>
   </si>
   <si>
     <t>Ca làm việc</t>
@@ -493,7 +472,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,62 +491,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G3"/>

--- a/WHC_COVID_CHECK/WISOL.UI/DANH_SACH_TEST.xlsx
+++ b/WHC_COVID_CHECK/WISOL.UI/DANH_SACH_TEST.xlsx
@@ -15,7 +15,7 @@
     <sheet name="DATA" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$I$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -48,12 +48,42 @@
   </si>
   <si>
     <t>Ca làm việc</t>
+  </si>
+  <si>
+    <t>CMTND</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>Ngay Sinh</t>
+  </si>
+  <si>
+    <t>H1608020</t>
+  </si>
+  <si>
+    <t>Trần Đức Thuận</t>
+  </si>
+  <si>
+    <t>001093032354</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>H1603020</t>
+  </si>
+  <si>
+    <t>Hà Thị Tuyên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,13 +143,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -127,14 +168,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -469,75 +526,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="11">
+        <v>34296</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11">
+        <v>35575</v>
+      </c>
+      <c r="E3" s="8">
+        <v>174930464</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G3"/>
+  <autoFilter ref="A1:I3"/>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="4" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="2" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
